--- a/Optimization/final_inputs.xlsx
+++ b/Optimization/final_inputs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gigan\OneDrive\Desktop\NYU\Fall 2025\Capstone\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147DB265-BD33-4A5A-BFC8-5C7ED373C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59344CB6-1F72-455F-B335-5EA6FCA4526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rmse" sheetId="1" r:id="rId1"/>
+    <sheet name="stdev" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="43">
   <si>
     <t>Asset</t>
   </si>
@@ -258,7 +259,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +272,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,48 +562,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="7"/>
-    <col min="4" max="4" width="12.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="7"/>
-    <col min="11" max="11" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="7"/>
-    <col min="13" max="13" width="29.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="32" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -705,10 +704,10 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="1">
@@ -717,28 +716,28 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>1.4872008171627094E-3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>3.7464194344500266</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>3.7227463884987232E-2</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>2.4231647403529714E-3</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>4.0218816180929019E-2</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>6.8391583886912551E-3</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>2.4540265079417107E-2</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>6.6821840388607097E-3</v>
       </c>
       <c r="M2" s="3">
@@ -806,10 +805,10 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -818,28 +817,28 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>7.2571052528311152E-3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>13.818760639976208</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>2.5503324483715464E-2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>2.9933288641158478E-3</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>3.8608701208915186E-2</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>8.3737736604044127E-3</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>2.6168209733133298E-2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>8.6676430428099475E-3</v>
       </c>
       <c r="M3" s="3">
@@ -907,10 +906,10 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1">
@@ -919,28 +918,28 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1.7201925309735149E-3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>10.586794105944223</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>3.2962907998917532E-2</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1.9186593542590256E-2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>2.4008736599732784E-2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>5.9650757812312341E-2</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>1.372389895147719E-2</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>1.3727055067837191E-2</v>
       </c>
       <c r="M4" s="3">
@@ -1008,10 +1007,10 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1">
@@ -1020,28 +1019,28 @@
       <c r="D5" s="1">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1.7358148694947484E-3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>8.3129217878570287</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>8.6160990982340046E-3</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>1.8232985513634479E-2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>0.10264055028981062</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>4.782744457521677E-3</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.14609865872723468</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>3.4051609470603886E-2</v>
       </c>
       <c r="M5" s="3">
@@ -1109,10 +1108,10 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="1">
@@ -1121,28 +1120,28 @@
       <c r="D6" s="1">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>8.651822990361675E-4</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>4.9646858541070547</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>3.2091126701296414E-2</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>2.7597323410187443E-2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>1.6137152282214628E-2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>2.986711218440578E-2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>2.7206375888349368E-2</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>1.3813780260707637E-2</v>
       </c>
       <c r="M6" s="3">
@@ -1210,10 +1209,10 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1">
@@ -1222,28 +1221,28 @@
       <c r="D7" s="1">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>1.1284520709002658E-3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>6.8397377394723433</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>6.4182253402592829E-2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>5.5194646820374886E-2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>3.2274304564429257E-2</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>4.4800668276608675E-2</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>5.4412751776698735E-2</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>3.9862623038042028E-2</v>
       </c>
       <c r="M7" s="3">
@@ -1311,10 +1310,10 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1">
@@ -1323,28 +1322,28 @@
       <c r="D8" s="1">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>1.485441210945501E-3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>8.3414786592650429</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>9.6273380103889236E-2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>8.279197023056234E-2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>4.8411456846643885E-2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>8.9601336553217351E-2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>8.16191276650481E-2</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>5.0518967810587921E-2</v>
       </c>
       <c r="M8" s="3">
@@ -1412,10 +1411,10 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="1">
@@ -1424,28 +1423,28 @@
       <c r="D9" s="1">
         <v>1.52E-2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>1.9438367039589233E-3</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>8.2171708865819753</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>9.203679775421425E-2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0.18811395872537376</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>3.8138095364652604E-2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>0.19413622919863757</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>7.6922858095926944E-2</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>8.2685341846235702E-2</v>
       </c>
       <c r="M9" s="3">
@@ -1513,10 +1512,10 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1">
@@ -1525,28 +1524,28 @@
       <c r="D10" s="1">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>1.6133452300916451E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>3.9338110115775913</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>4.9282160552578539E-3</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>1.2576639207742459E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>2.943913196972273E-3</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>8.0601151135891759E-3</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>8.0853480556559772E-3</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>4.5530803875463441E-3</v>
       </c>
       <c r="M10" s="3">
@@ -1614,10 +1613,10 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="1">
@@ -1626,28 +1625,28 @@
       <c r="D11" s="1">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>1.3612709339117337E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>9.5116975212047663</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>3.3761605026707926E-3</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>1.55358884714635E-2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>2.826056950447498E-3</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>9.8686966732051615E-3</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>8.6217114200305423E-3</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>5.9059246669894245E-3</v>
       </c>
       <c r="M11" s="3">
@@ -1715,10 +1714,10 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="1">
@@ -1727,28 +1726,28 @@
       <c r="D12" s="1">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>6.6595024475316652E-4</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>6.1889832358874335</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>0.1114156765863836</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>0.14313671957109483</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>5.9715016877931223E-2</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>6.8103218941207772E-2</v>
       </c>
       <c r="M12" s="3">
@@ -1816,10 +1815,10 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1">
@@ -1828,28 +1827,28 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>2.124682039654535E-3</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>6.7064565111538013</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>7.4044328825958294E-2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>6.7884176887931996E-2</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>9.9241104542017108E-2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>3.5604448394302594E-2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>9.7483744411363468E-3</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>9.8856078744346904E-2</v>
       </c>
       <c r="M13" s="3">
@@ -1917,10 +1916,10 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1">
@@ -1929,28 +1928,28 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>2.4015299662288672E-3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>4.1086900210423067</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>5.8165216100844151E-2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>4.0555889907012629E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>2.3235586180902705E-2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>4.9657723440539953E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>2.3850657691656622E-2</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>8.087257249268423E-2</v>
       </c>
       <c r="M14" s="3">
@@ -2018,10 +2017,10 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="1">
@@ -2030,28 +2029,28 @@
       <c r="D15" s="1">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>3.1242082988843121E-3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>3.2815588370748707</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>5.4254362609447153E-2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0.1277919523958872</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>5.1279201528904958E-2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>6.5705570100641306E-2</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>4.5632648590518479E-2</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>7.9329608938547486E-2</v>
       </c>
       <c r="M15" s="3">
@@ -2119,10 +2118,10 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1">
@@ -2131,28 +2130,28 @@
       <c r="D16" s="1">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>1.260731195804279E-3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>8.1053679226380968</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>4.0968870917538827E-2</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>4.4687378113757982E-2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>4.0369496868913383E-2</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>6.2925416168579898E-2</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>0.13403805649611761</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>0.11630327214684757</v>
       </c>
       <c r="M16" s="3">
@@ -2220,10 +2219,10 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="1">
@@ -2232,28 +2231,28 @@
       <c r="D17" s="1">
         <v>1.52E-2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>1.5635616040209409E-3</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>7.9927807681872469</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>1.9583002501766866E-2</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>5.0767722875940689E-2</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>1.5901357051563269E-2</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>7.4366400926503512E-2</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>6.3162831399140376E-2</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>9.229369513168395E-2</v>
       </c>
       <c r="M17" s="3">
@@ -2321,10 +2320,10 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="1">
@@ -2333,28 +2332,28 @@
       <c r="D18" s="1">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>1.1204045139111518E-2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>3.8670080655810657</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>1.7669522503794895E-3</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>7.5869383868727817E-3</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>2.405740365734666E-3</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>6.8678639271825652E-3</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>1.3718486376601158E-2</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>1.1674381484437337E-2</v>
       </c>
       <c r="M18" s="3">
@@ -2422,10 +2421,10 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1">
@@ -2434,28 +2433,28 @@
       <c r="D19" s="1">
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>9.118070847055768E-4</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>6.3666743917403208</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>6.6906439231913029E-2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>5.4686241767184021E-2</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>6.9960448523886734E-2</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>6.6176991008735045E-2</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>5.2248565292866124E-2</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>4.8878247760929326E-2</v>
       </c>
       <c r="M19" s="3">
@@ -2523,10 +2522,10 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="1">
@@ -2535,28 +2534,28 @@
       <c r="D20" s="1">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>7.3545902309661943E-3</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>4.1037512305205741</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>0.13381287846382606</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>0.15594669966856825</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>0.13992089704777347</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>0.13235398201747009</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>0.10449713058573225</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>9.7756495521858652E-2</v>
       </c>
       <c r="M20" s="3">
@@ -2624,10 +2623,10 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="1">
@@ -2636,26 +2635,26 @@
       <c r="D21" s="1">
         <v>0.3</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>6.3875526944260075E-2</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="11">
+      <c r="F21" s="7"/>
+      <c r="G21" s="10">
         <v>3.602699187275759E-2</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>2.5166775448619602E-2</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>3.4499421345233414E-2</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>3.3574007798301025E-2</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>2.0888306929411411E-2</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>4.5464219207235965E-2</v>
       </c>
       <c r="M21" s="3">
@@ -2723,10 +2722,10 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1">
@@ -2735,26 +2734,26 @@
       <c r="D22" s="1">
         <v>0.3</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>3.0485132094648801E-2</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="12">
+      <c r="F22" s="9"/>
+      <c r="G22" s="11">
         <v>5.8575506534093392E-3</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>2.7972502182702823E-4</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>3.3842243489227847E-2</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>1.6787003899150513E-2</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>5.1007199259163367E-3</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>0</v>
       </c>
       <c r="M22" s="3">
@@ -2820,6 +2819,2330 @@
       <c r="AG22" s="1">
         <v>3.0485132094648801E-2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067916E5-8654-4C53-B63D-00A7E3A34360}">
+  <dimension ref="A1:AG41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.8328069999999999E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3.6104427075357949E-3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3.7464194344500266</v>
+      </c>
+      <c r="G2" s="10">
+        <v>3.7227463884987232E-2</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2.4231647403529714E-3</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4.0218816180929019E-2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>6.8391583886912551E-3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2.4540265079417107E-2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>6.6821840388607097E-3</v>
+      </c>
+      <c r="M2" s="10">
+        <v>3.6104427075357949E-3</v>
+      </c>
+      <c r="N2" s="7">
+        <v>6.9580490540742199E-3</v>
+      </c>
+      <c r="O2" s="7">
+        <v>2.6920698661462095E-3</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1.9022965811650451E-3</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>2.519005064394569E-3</v>
+      </c>
+      <c r="R2" s="7">
+        <v>2.4414320169910222E-3</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2.2652149628306752E-3</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1.9967310239490002E-3</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-2.5495264892678348E-4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>9.1933160741918961E-4</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2.5909570779287664E-3</v>
+      </c>
+      <c r="X2" s="1">
+        <v>4.0797849557113368E-3</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1.0235374874921501E-3</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1.0368040371093736E-3</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>5.7234847399393989E-4</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>4.2735667167192255E-4</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-3.2086523804987477E-3</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>4.1175109653066586E-4</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1.6123025139201147E-3</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>-3.2282653630732322E-4</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1.1078216184024937E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.8006310000000003E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.8404785498470702E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>13.818760639976208</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2.5503324483715464E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2.9933288641158478E-3</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3.8608701208915186E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>8.3737736604044127E-3</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2.6168209733133298E-2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>8.6676430428099475E-3</v>
+      </c>
+      <c r="M3" s="10">
+        <v>6.9580490540742191E-3</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1.8404785498470702E-2</v>
+      </c>
+      <c r="O3" s="7">
+        <v>6.302617383406631E-3</v>
+      </c>
+      <c r="P3" s="7">
+        <v>4.3620669707789255E-3</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>5.411317679143217E-3</v>
+      </c>
+      <c r="R3" s="7">
+        <v>5.6983786797504292E-3</v>
+      </c>
+      <c r="S3" s="3">
+        <v>5.4973875559083665E-3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4.9805020587285042E-3</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-4.8939366789122331E-4</v>
+      </c>
+      <c r="V3" s="1">
+        <v>2.865903394087624E-3</v>
+      </c>
+      <c r="W3" s="1">
+        <v>6.0123546870850583E-3</v>
+      </c>
+      <c r="X3" s="1">
+        <v>8.353189249164129E-3</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>2.6041733758391211E-3</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2.04910545500215E-3</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1.5907159811317704E-3</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1.2411761061090229E-3</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>5.4823167939636562E-3</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>9.2965094619755712E-4</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>4.2457921833798521E-3</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>7.0402667503763794E-4</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>6.442625070908006E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.8570809999999997E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>6.7416147163531252E-3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10.586794105944223</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3.2962907998917532E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.9186593542590256E-2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.4008736599732784E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>5.9650757812312341E-2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.372389895147719E-2</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1.3727055067837191E-2</v>
+      </c>
+      <c r="M4" s="10">
+        <v>2.6920698661462091E-3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6.3026173834066319E-3</v>
+      </c>
+      <c r="O4" s="7">
+        <v>6.7416147163531252E-3</v>
+      </c>
+      <c r="P4" s="7">
+        <v>2.1311975699692888E-3</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>2.4170483147064469E-3</v>
+      </c>
+      <c r="R4" s="7">
+        <v>3.3650793689330174E-3</v>
+      </c>
+      <c r="S4" s="3">
+        <v>3.7788001343542856E-3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4.1872813209380038E-3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4.6540812264233402E-3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>7.8332613259699934E-3</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2.9012253883447209E-3</v>
+      </c>
+      <c r="X4" s="1">
+        <v>4.5444893265492994E-3</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2.5893849875556338E-3</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2.6540374998982315E-3</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1.3961739657965069E-3</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1.3170996619454706E-3</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2.1330212672801925E-3</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1.1956262306375568E-3</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>4.4470432820232723E-3</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>-5.3541553262073248E-4</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>3.5110651637178068E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.9666399999999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.5888772405751447E-3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>8.3129217878570287</v>
+      </c>
+      <c r="G5" s="10">
+        <v>8.6160990982340046E-3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.8232985513634479E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.10264055028981062</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4.782744457521677E-3</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.14609865872723468</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3.4051609470603886E-2</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1.9022965811650448E-3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4.3620669707789255E-3</v>
+      </c>
+      <c r="O5" s="7">
+        <v>2.1311975699692893E-3</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1.5888772405751447E-3</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1.4875331596633751E-3</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1.7161080745796073E-3</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1.7174618398849921E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1.7437284135168145E-3</v>
+      </c>
+      <c r="U5" s="1">
+        <v>8.6044005564831394E-4</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1.9738281745280625E-3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2.387221214441777E-3</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2.4573989386796544E-3</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>9.4862156366867735E-4</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>6.6904266279137149E-4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>5.6190555434080093E-4</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>5.2484167261149456E-4</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>-5.7528875900589001E-4</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>4.211047982229484E-4</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1.5735672987581158E-3</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>-3.0114441743226803E-5</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>9.4839975682819562E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.2274459999999993E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.9815584480639393E-3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.9646858541070547</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3.2091126701296414E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2.7597323410187443E-2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.6137152282214628E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2.986711218440578E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2.7206375888349368E-2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1.3813780260707637E-2</v>
+      </c>
+      <c r="M6" s="10">
+        <v>2.519005064394569E-3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>5.411317679143217E-3</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2.4170483147064469E-3</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1.4875331596633751E-3</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1.9815584480639393E-3</v>
+      </c>
+      <c r="R6" s="7">
+        <v>2.0838192959398978E-3</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.0715316762123315E-3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2.0240489773269738E-3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>9.1513964816016544E-4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2.2538950525995928E-3</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1.7062038223380528E-3</v>
+      </c>
+      <c r="X6" s="1">
+        <v>3.3000812978714834E-3</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1.3205315330085596E-3</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1.0690804549166124E-3</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>7.0892282443149243E-4</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>6.1024968266987928E-4</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>2.3128457007443202E-3</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>6.4821177117310995E-4</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2.1811138317637019E-3</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>-9.4858251126026053E-5</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>2.5172687930452489E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.256675E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3.0033220720651708E-3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6.8397377394723433</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6.4182253402592829E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5.5194646820374886E-2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3.2274304564429257E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4.4800668276608675E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>5.4412751776698735E-2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3.9862623038042028E-2</v>
+      </c>
+      <c r="M7" s="10">
+        <v>2.4414320169910222E-3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5.6983786797504283E-3</v>
+      </c>
+      <c r="O7" s="7">
+        <v>3.3650793689330174E-3</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1.7161080745796073E-3</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>2.0838192959398978E-3</v>
+      </c>
+      <c r="R7" s="7">
+        <v>3.0033220720651708E-3</v>
+      </c>
+      <c r="S7" s="3">
+        <v>3.3075184353822534E-3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3.4485457142555422E-3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3.2675497045530793E-3</v>
+      </c>
+      <c r="V7" s="1">
+        <v>5.8864247959415725E-3</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2.1005277388785595E-3</v>
+      </c>
+      <c r="X7" s="1">
+        <v>3.585550405409975E-3</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2.2958833971742526E-3</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1.6858709278615778E-3</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1.206219858350186E-3</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1.1462809360611892E-3</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2.8473717422002717E-3</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>7.9802119078065548E-4</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>3.8667055218347991E-3</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1.8293548276170082E-4</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>5.0116361973872128E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.8031650000000002E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.9365601543494303E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8.3414786592650429</v>
+      </c>
+      <c r="G8" s="10">
+        <v>9.6273380103889236E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8.279197023056234E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4.8411456846643885E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>8.9601336553217351E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>8.16191276650481E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>5.0518967810587921E-2</v>
+      </c>
+      <c r="M8" s="10">
+        <v>2.2652149628306752E-3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5.4973875559083674E-3</v>
+      </c>
+      <c r="O8" s="7">
+        <v>3.7788001343542852E-3</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1.7174618398849921E-3</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>2.0715316762123315E-3</v>
+      </c>
+      <c r="R8" s="7">
+        <v>3.3075184353822539E-3</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3.9365601543494303E-3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4.2003852528871878E-3</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4.7784312711474704E-3</v>
+      </c>
+      <c r="V8" s="1">
+        <v>8.01188001649796E-3</v>
+      </c>
+      <c r="W8" s="1">
+        <v>2.4048384844239782E-3</v>
+      </c>
+      <c r="X8" s="1">
+        <v>3.6421930999165401E-3</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>2.7119772987750936E-3</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2.2014189618715986E-3</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1.4807651854530435E-3</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1.3747507556375951E-3</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>3.2598803711872556E-3</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>9.1363329103178392E-4</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>4.5758149462510325E-3</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>8.3664605246935289E-4</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>8.9549059044370161E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.7218029999999994E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5.2201212926573162E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8.2171708865819753</v>
+      </c>
+      <c r="G9" s="10">
+        <v>9.203679775421425E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.18811395872537376</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3.8138095364652604E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.19413622919863757</v>
+      </c>
+      <c r="K9" s="7">
+        <v>7.6922858095926944E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>8.2685341846235702E-2</v>
+      </c>
+      <c r="M9" s="10">
+        <v>1.9967310239490002E-3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4.9805020587285042E-3</v>
+      </c>
+      <c r="O9" s="7">
+        <v>4.1872813209380046E-3</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1.7437284135168143E-3</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>2.0240489773269738E-3</v>
+      </c>
+      <c r="R9" s="7">
+        <v>3.4485457142555426E-3</v>
+      </c>
+      <c r="S9" s="3">
+        <v>4.2003852528871887E-3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5.2201212926573162E-3</v>
+      </c>
+      <c r="U9" s="1">
+        <v>6.8227758499355999E-3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1.0868391708987886E-2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2.7692857074271735E-3</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3.8232114070961853E-3</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>3.180208467838909E-3</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>2.8555944188677425E-3</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1.8474675381290589E-3</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1.8775237204676513E-3</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>3.753907041292874E-3</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1.0520921180658827E-3</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>5.4840266285091591E-3</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>4.3483452214768489E-4</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>6.1987369318742668E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.3729644878048775E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.5530372780674234E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3.9338110115775913</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4.9282160552578539E-3</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.2576639207742459E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2.943913196972273E-3</v>
+      </c>
+      <c r="J10" s="7">
+        <v>8.0601151135891759E-3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>8.0853480556559772E-3</v>
+      </c>
+      <c r="L10" s="7">
+        <v>4.5530803875463441E-3</v>
+      </c>
+      <c r="M10" s="10">
+        <v>-2.5495264892678342E-4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>-4.8939366789122331E-4</v>
+      </c>
+      <c r="O10" s="7">
+        <v>4.6540812264233402E-3</v>
+      </c>
+      <c r="P10" s="7">
+        <v>8.6044005564831383E-4</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>9.1513964816016544E-4</v>
+      </c>
+      <c r="R10" s="7">
+        <v>3.2675497045530793E-3</v>
+      </c>
+      <c r="S10" s="3">
+        <v>4.7784312711474704E-3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>6.8227758499355999E-3</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1.5530372780674234E-2</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2.1294248050307531E-2</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1.4180516002495033E-3</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2.5443789760802747E-3</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>6.5822413076031955E-3</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4.2880086543352408E-3</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>3.2022045775996909E-3</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>3.3176217120749465E-3</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1.3849126474165049E-2</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1.7435335713161177E-3</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1.1392101939172873E-2</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>8.5286149926847628E-4</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>2.0608061761605932E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.1979224878048781E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3.2546287618515177E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9.5116975212047663</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3.3761605026707926E-3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1.55358884714635E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.826056950447498E-3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>9.8686966732051615E-3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>8.6217114200305423E-3</v>
+      </c>
+      <c r="L11" s="7">
+        <v>5.9059246669894245E-3</v>
+      </c>
+      <c r="M11" s="10">
+        <v>9.1933160741918961E-4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2.8659033940876245E-3</v>
+      </c>
+      <c r="O11" s="7">
+        <v>7.8332613259699917E-3</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1.9738281745280625E-3</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>2.2538950525995928E-3</v>
+      </c>
+      <c r="R11" s="7">
+        <v>5.8864247959415725E-3</v>
+      </c>
+      <c r="S11" s="3">
+        <v>8.01188001649796E-3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1.0868391708987887E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2.1294248050307534E-2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3.2546287618515177E-2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2.0528245041763547E-3</v>
+      </c>
+      <c r="X11" s="1">
+        <v>5.2062026057645054E-3</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>9.1626158320881734E-3</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>6.3427984030719987E-3</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>5.1604301931303855E-3</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>5.2647593377965979E-3</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>2.0048513173005354E-2</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>2.524004372211907E-3</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1.5829704212531947E-2</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1.8142330876714445E-3</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>2.9046679582454358E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.8510250000000003E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3.5866994511281453E-3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>6.1889832358874335</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.1114156765863836</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.14313671957109483</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>5.9715016877931223E-2</v>
+      </c>
+      <c r="L12" s="7">
+        <v>6.8103218941207772E-2</v>
+      </c>
+      <c r="M12" s="10">
+        <v>2.5909570779287668E-3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6.0123546870850583E-3</v>
+      </c>
+      <c r="O12" s="7">
+        <v>2.9012253883447209E-3</v>
+      </c>
+      <c r="P12" s="7">
+        <v>2.387221214441777E-3</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1.7062038223380528E-3</v>
+      </c>
+      <c r="R12" s="7">
+        <v>2.1005277388785595E-3</v>
+      </c>
+      <c r="S12" s="3">
+        <v>2.4048384844239782E-3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2.7692857074271739E-3</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.4180516002495033E-3</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2.0528245041763543E-3</v>
+      </c>
+      <c r="W12" s="1">
+        <v>3.5866994511281453E-3</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3.4186080997361699E-3</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>3.2434335542324342E-3</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>2.4381212632455362E-3</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>-1.5992110007838255E-4</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>-1.7079547726478613E-4</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>-8.6434715965320202E-4</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>6.3269224465519868E-4</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>2.9133861243258547E-3</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>-2.2704189353968838E-3</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>-1.6730600012303846E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.8308810000000001E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6.6497844519820192E-3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>6.7064565111538013</v>
+      </c>
+      <c r="G13" s="10">
+        <v>7.4044328825958294E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6.7884176887931996E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9.9241104542017108E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3.5604448394302594E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>9.7483744411363468E-3</v>
+      </c>
+      <c r="L13" s="7">
+        <v>9.8856078744346904E-2</v>
+      </c>
+      <c r="M13" s="10">
+        <v>4.0797849557113368E-3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8.353189249164129E-3</v>
+      </c>
+      <c r="O13" s="7">
+        <v>4.5444893265492994E-3</v>
+      </c>
+      <c r="P13" s="7">
+        <v>2.4573989386796548E-3</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>3.3000812978714834E-3</v>
+      </c>
+      <c r="R13" s="7">
+        <v>3.5855504054099745E-3</v>
+      </c>
+      <c r="S13" s="3">
+        <v>3.6421930999165401E-3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>3.8232114070961849E-3</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2.5443789760802747E-3</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5.2062026057645054E-3</v>
+      </c>
+      <c r="W13" s="1">
+        <v>3.4186080997361695E-3</v>
+      </c>
+      <c r="X13" s="1">
+        <v>6.6497844519820192E-3</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1.900480523773788E-3</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>2.0493773062951748E-3</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1.078768354145395E-3</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1.0028876421280394E-3</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>4.7076535186050525E-4</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1.1641718192526348E-3</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>3.1816770866239766E-3</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>-8.9373924402864023E-4</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>1.6015944793009308E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.5924659999999992E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5.9857551000908511E-3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4.1086900210423067</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5.8165216100844151E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4.0555889907012629E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2.3235586180902705E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4.9657723440539953E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2.3850657691656622E-2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>8.087257249268423E-2</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1.0235374874921503E-3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2.6041733758391211E-3</v>
+      </c>
+      <c r="O14" s="7">
+        <v>2.5893849875556333E-3</v>
+      </c>
+      <c r="P14" s="7">
+        <v>9.4862156366867724E-4</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1.3205315330085594E-3</v>
+      </c>
+      <c r="R14" s="7">
+        <v>2.2958833971742526E-3</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2.711977298775094E-3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>3.1802084678389094E-3</v>
+      </c>
+      <c r="U14" s="1">
+        <v>6.5822413076031963E-3</v>
+      </c>
+      <c r="V14" s="1">
+        <v>9.1626158320881734E-3</v>
+      </c>
+      <c r="W14" s="1">
+        <v>3.2434335542324347E-3</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1.900480523773788E-3</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>5.9857551000908511E-3</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2.0048299472129045E-3</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1.9052095035776552E-3</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1.8245083377916517E-3</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>4.4664263754369467E-4</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>1.1045179298987847E-3</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>1.0145700111337296E-2</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>6.7274752284343425E-4</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>2.1682289730022724E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.3074989999999994E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3.3823577263425481E-3</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3.2815588370748707</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5.4254362609447153E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.1277919523958872</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5.1279201528904958E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6.5705570100641306E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>4.5632648590518479E-2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>7.9329608938547486E-2</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1.0368040371093736E-3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2.04910545500215E-3</v>
+      </c>
+      <c r="O15" s="7">
+        <v>2.6540374998982315E-3</v>
+      </c>
+      <c r="P15" s="7">
+        <v>6.6904266279137149E-4</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>1.0690804549166124E-3</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1.6858709278615778E-3</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2.2014189618715986E-3</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2.8555944188677429E-3</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4.2880086543352416E-3</v>
+      </c>
+      <c r="V15" s="1">
+        <v>6.3427984030719987E-3</v>
+      </c>
+      <c r="W15" s="1">
+        <v>2.4381212632455362E-3</v>
+      </c>
+      <c r="X15" s="1">
+        <v>2.0493773062951748E-3</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>2.0048299472129045E-3</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>3.3823577263425481E-3</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1.4938555456946443E-3</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1.4687557181115847E-3</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>3.357457131336418E-4</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>8.302771138961908E-4</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>3.5153177622409644E-3</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>6.4527637734644117E-4</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>7.1892154183064803E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.4532310000000001E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2.8521774515827768E-3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>8.1053679226380968</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4.0968870917538827E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4.4687378113757982E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4.0369496868913383E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>6.2925416168579898E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.13403805649611761</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.11630327214684757</v>
+      </c>
+      <c r="M16" s="10">
+        <v>5.7234847399393989E-4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1.5907159811317702E-3</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1.3961739657965069E-3</v>
+      </c>
+      <c r="P16" s="7">
+        <v>5.6190555434080082E-4</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>7.0892282443149243E-4</v>
+      </c>
+      <c r="R16" s="7">
+        <v>1.206219858350186E-3</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1.4807651854530435E-3</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1.8474675381290589E-3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>3.2022045775996909E-3</v>
+      </c>
+      <c r="V16" s="1">
+        <v>5.1604301931303855E-3</v>
+      </c>
+      <c r="W16" s="1">
+        <v>-1.5992110007838255E-4</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1.078768354145395E-3</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1.905209503577655E-3</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1.4938555456946443E-3</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>2.8521774515827768E-3</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>2.9238935902048523E-3</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>5.1642087572843576E-3</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>7.3193548424474214E-4</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>3.3189499069323368E-3</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>2.0812744860875102E-3</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>2.0136396943057052E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.3536709999999994E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3.2532522394571671E-3</v>
+      </c>
+      <c r="F17" s="8">
+        <v>7.9927807681872469</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1.9583002501766866E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5.0767722875940689E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.5901357051563269E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>7.4366400926503512E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>6.3162831399140376E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>9.229369513168395E-2</v>
+      </c>
+      <c r="M17" s="10">
+        <v>4.2735667167192261E-4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1.2411761061090229E-3</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1.3170996619454706E-3</v>
+      </c>
+      <c r="P17" s="7">
+        <v>5.2484167261149456E-4</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>6.1024968266987928E-4</v>
+      </c>
+      <c r="R17" s="7">
+        <v>1.146280936061189E-3</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1.3747507556375951E-3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1.8775237204676513E-3</v>
+      </c>
+      <c r="U17" s="1">
+        <v>3.3176217120749465E-3</v>
+      </c>
+      <c r="V17" s="1">
+        <v>5.264759337796597E-3</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-1.7079547726478616E-4</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1.0028876421280396E-3</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1.8245083377916515E-3</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1.4687557181115847E-3</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>2.9238935902048523E-3</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>3.2532522394571671E-3</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>5.5153666336903735E-3</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>7.8170591808923891E-4</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>3.208447408625931E-3</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1.6916044794924724E-3</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>1.7976729406497887E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.5747584390243909E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2.0829624075849717E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3.8670080655810657</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1.7669522503794895E-3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7.5869383868727817E-3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2.405740365734666E-3</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6.8678639271825652E-3</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1.3718486376601158E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1.1674381484437337E-2</v>
+      </c>
+      <c r="M18" s="10">
+        <v>-3.2086523804987477E-3</v>
+      </c>
+      <c r="N18" s="7">
+        <v>5.4823167939636562E-3</v>
+      </c>
+      <c r="O18" s="7">
+        <v>2.1330212672801925E-3</v>
+      </c>
+      <c r="P18" s="7">
+        <v>-5.7528875900589001E-4</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>2.3128457007443202E-3</v>
+      </c>
+      <c r="R18" s="7">
+        <v>2.8473717422002722E-3</v>
+      </c>
+      <c r="S18" s="3">
+        <v>3.2598803711872556E-3</v>
+      </c>
+      <c r="T18" s="1">
+        <v>3.753907041292874E-3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1.3849126474165047E-2</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2.0048513173005354E-2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>-8.6434715965320202E-4</v>
+      </c>
+      <c r="X18" s="1">
+        <v>4.7076535186050525E-4</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>4.4664263754369473E-4</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>3.357457131336418E-4</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>5.1642087572843576E-3</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>5.5153666336903726E-3</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>2.0829624075849717E-2</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1.7719540898793796E-3</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>8.1593958231784593E-3</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>2.480372323070457E-2</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>1.1087597021070549E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.7954639999999993E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8.1524207861386128E-4</v>
+      </c>
+      <c r="F19" s="8">
+        <v>6.3666743917403208</v>
+      </c>
+      <c r="G19" s="10">
+        <v>6.6906439231913029E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5.4686241767184021E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6.9960448523886734E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>6.6176991008735045E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>5.2248565292866124E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>4.8878247760929326E-2</v>
+      </c>
+      <c r="M19" s="10">
+        <v>4.1175109653066586E-4</v>
+      </c>
+      <c r="N19" s="7">
+        <v>9.2965094619755712E-4</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1.1956262306375568E-3</v>
+      </c>
+      <c r="P19" s="7">
+        <v>4.211047982229484E-4</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>6.4821177117310995E-4</v>
+      </c>
+      <c r="R19" s="7">
+        <v>7.9802119078065559E-4</v>
+      </c>
+      <c r="S19" s="3">
+        <v>9.1363329103178403E-4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1.0520921180658827E-3</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1.7435335713161175E-3</v>
+      </c>
+      <c r="V19" s="1">
+        <v>2.524004372211907E-3</v>
+      </c>
+      <c r="W19" s="1">
+        <v>6.3269224465519868E-4</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1.1641718192526348E-3</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1.1045179298987847E-3</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>8.302771138961908E-4</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>7.3193548424474214E-4</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>7.8170591808923891E-4</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1.7719540898793796E-3</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>8.1524207861386128E-4</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>3.7539814654983937E-3</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>2.5256815172202134E-3</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1.5454288958049443E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.756515E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.7286125450328121E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4.1037512305205741</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.13381287846382606</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.15594669966856825</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.13992089704777347</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.13235398201747009</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.10449713058573225</v>
+      </c>
+      <c r="L20" s="7">
+        <v>9.7756495521858652E-2</v>
+      </c>
+      <c r="M20" s="10">
+        <v>1.6123025139201147E-3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4.2457921833798521E-3</v>
+      </c>
+      <c r="O20" s="7">
+        <v>4.4470432820232723E-3</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1.5735672987581156E-3</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>2.1811138317637019E-3</v>
+      </c>
+      <c r="R20" s="7">
+        <v>3.8667055218347996E-3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>4.5758149462510316E-3</v>
+      </c>
+      <c r="T20" s="1">
+        <v>5.4840266285091591E-3</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1.1392101939172873E-2</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1.5829704212531947E-2</v>
+      </c>
+      <c r="W20" s="1">
+        <v>2.9133861243258547E-3</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3.1816770866239766E-3</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1.0145700111337296E-2</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>3.5153177622409648E-3</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>3.3189499069323372E-3</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>3.2084474086259314E-3</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>8.159395823178461E-3</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>3.7539814654983937E-3</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>1.7286125450328121E-2</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>1.1096750178586389E-3</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>3.4823817883698812E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>6.3875526944260075E-2</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="10">
+        <v>3.602699187275759E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2.5166775448619602E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3.4499421345233414E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>3.3574007798301025E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2.0888306929411411E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>4.5464219207235965E-2</v>
+      </c>
+      <c r="M21" s="10">
+        <v>-3.2282653630732327E-4</v>
+      </c>
+      <c r="N21" s="7">
+        <v>7.0402667503763783E-4</v>
+      </c>
+      <c r="O21" s="7">
+        <v>-5.3541553262073248E-4</v>
+      </c>
+      <c r="P21" s="7">
+        <v>-3.0114441743226806E-5</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>-9.4858251126026067E-5</v>
+      </c>
+      <c r="R21" s="7">
+        <v>1.8293548276170082E-4</v>
+      </c>
+      <c r="S21" s="3">
+        <v>8.36646052469353E-4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>4.3483452214768489E-4</v>
+      </c>
+      <c r="U21" s="1">
+        <v>8.5286149926847639E-4</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1.8142330876714445E-3</v>
+      </c>
+      <c r="W21" s="1">
+        <v>-2.2704189353968838E-3</v>
+      </c>
+      <c r="X21" s="1">
+        <v>-8.9373924402864023E-4</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>6.7274752284343425E-4</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>6.4527637734644106E-4</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>2.0812744860875098E-3</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>1.6916044794924724E-3</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>2.480372323070457E-2</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>2.5256815172202138E-3</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>1.1096750178586389E-3</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>6.3875526944260075E-2</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>3.1259215712204601E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3.0485132094648801E-2</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="11">
+        <v>5.8575506534093392E-3</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2.7972502182702823E-4</v>
+      </c>
+      <c r="I22" s="9">
+        <v>3.3842243489227847E-2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1.6787003899150513E-2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>5.1007199259163367E-3</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>1.1078216184024937E-4</v>
+      </c>
+      <c r="N22" s="9">
+        <v>6.4426250709080071E-4</v>
+      </c>
+      <c r="O22" s="9">
+        <v>3.5110651637178068E-4</v>
+      </c>
+      <c r="P22" s="9">
+        <v>9.4839975682819576E-5</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>2.5172687930452489E-4</v>
+      </c>
+      <c r="R22" s="9">
+        <v>5.0116361973872117E-4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>8.9549059044370151E-4</v>
+      </c>
+      <c r="T22" s="1">
+        <v>6.1987369318742679E-4</v>
+      </c>
+      <c r="U22" s="1">
+        <v>2.0608061761605932E-3</v>
+      </c>
+      <c r="V22" s="1">
+        <v>2.9046679582454358E-3</v>
+      </c>
+      <c r="W22" s="1">
+        <v>-1.6730600012303844E-3</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1.6015944793009305E-4</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>2.1682289730022724E-3</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>7.1892154183064803E-4</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>2.0136396943057052E-3</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>1.7976729406497889E-3</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1.1087597021070551E-2</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>1.5454288958049445E-3</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>3.4823817883698808E-3</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>3.1259215712204601E-2</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>3.0485132094648801E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Optimization/final_inputs.xlsx
+++ b/Optimization/final_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gigan\OneDrive\Desktop\NYU\Fall 2025\Capstone\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59344CB6-1F72-455F-B335-5EA6FCA4526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487D1575-C32E-457E-A4D3-C51D261B5DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rmse" sheetId="1" r:id="rId1"/>
@@ -562,11 +562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:L22"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2226,7 +2226,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>5.3536709999999994E-2</v>
+        <v>5.6536710000000004E-2</v>
       </c>
       <c r="D17" s="1">
         <v>1.52E-2</v>
@@ -2630,7 +2630,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="1">
-        <v>6.9800000000000001E-2</v>
+        <v>9.6763011044683683E-2</v>
       </c>
       <c r="D21" s="1">
         <v>0.3</v>
@@ -2829,11 +2829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067916E5-8654-4C53-B63D-00A7E3A34360}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4493,7 +4493,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>5.3536709999999994E-2</v>
+        <v>5.6536710000000004E-2</v>
       </c>
       <c r="D17" s="1">
         <v>1.52E-2</v>
@@ -4897,7 +4897,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="1">
-        <v>6.9800000000000001E-2</v>
+        <v>9.6763011044683683E-2</v>
       </c>
       <c r="D21" s="1">
         <v>0.3</v>
